--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560343/JX560343_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560343/JX560343_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89306281168</v>
+        <v>45441.83332833632</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1757t&gt;a']</t>
+          <t>['1726_1757del', '1618_1712insaatcgactcccggcatgagtgtattaaaactgcccctttggccagattctcacgtaccgcccaatagccgtacatctcattcaggtagatgtgc', '1725_1796insaggacgtggtttgagatttgtcttccccagagcggactatgcgtggtatctccggatctggcggattggga', '1604_1700del', '1782_1902del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89306284062</v>
+        <v>45441.83332837103</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['160c&gt;t']</t>
+          <t>['182_222del', '161_178instccctttcgattgtgct', '212_282insgtgccaacttaaactaagttaagtagctaaaacgcatgtgtgtcgctaatctatctcgttccgcgactat', '197_225del', '226_307insttgtcatcagtttagatcgacataacgtaatgtttggttctacgtagaaccagttttcctagtgggcctaagcttggcggc']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89306285798</v>
+        <v>45441.83332838838</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3397_3401instgga']</t>
+          <t>['3404_3491del', '3381_3463del', '3357_3424del', '3431_3461inscgctaatgggcgcgacaacaaatagcttat', '3418_3568inscggctttgtacgcgatgatatttttaactagacatactttcgcggcccctgagggtgcagtgctcccaaaaacaattccttgaagtttgccgcaacacactgtgtaatggctcgtcctgtcgtgatagagataggcgcttaaccagctaa']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89306288114</v>
+        <v>45441.83332853272</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1786a&gt;c']</t>
+          <t>['1757_1812del', '1571_1717del', '1692_1715insgtttacgttctcccgcacgcaga', '1621_1657del', '1596_1672del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['215_216del']</t>
+          <t>['245_393insggagccctctcgtcaagactggcattccaaaagtttacgggcaaggcagtacaacactctaataactctcttgcgttttcaaatgctcggatttgtgctctctagccggcccaggtcaccgagatggcgtgtatcttacaaagctaca', '155_201del', '194_326del', '199_306del', '251_312del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8930628985</v>
+        <v>45441.83332856155</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1704_1706instt']</t>
+          <t>['1790_1814del', '1704_1806insagggggcgtctttccattcactggcgtgccctgcagctggcatctcagtctcccgctccacccagcggtgtgtctcgcataatcagacacctcctactgcta', '1808_1850del', '1698_1787insgtgggcttagacaggcatagagatcgtaactgagccccggaaaattgtacaatagagctggaggttcacggcaggccgacgaagctctc', '1685_1749insctcgattctgcacttcctcctgcatcttgccacaaaaacccgccaaatttgcgagtccggccgt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3388a&gt;c']</t>
+          <t>['3388_3483instcggggttgccgttaggtgcataccgatgagacaatcaagacaagaaaggttgccttcccgtgaagaccagctgggagacccatccactaactcc', '3369_3412instaatctgcaccaatcttcagattcaaagtgaccagatgtcccc', '3447_3515del', '3432_3518del', '3387_3467del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89306291587</v>
+        <v>45441.83332857946</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['160_162del']</t>
+          <t>['173_287del', '183_239del', '241_257del', '178_208insacttattagagtgtattacgtcaactgtgt', '244_256insatcagtgagaat']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3411_3412insg']</t>
+          <t>['3425_3514instctgcgcggcggtatcggaccgctttcggccccaaacttcccgtccgcgggtgatgtcgcccccacctatggtaacaagaaggcacctt', '3439_3509del', '3377_3412insagagctagtaattcaccctcacgatttcggcgtga', '3424_3547instacgggcggcaacatgctagctcagtagggccctatcccataaggagttatgagactacgtggagtcctacacctctaagggcaactttaatgatacaactagcgttccaaacgtcaacttaa', '3365_3491instacggcgatgactgagagccagaacgtggatgtatgtggaccatgtcttacgttatcacttccaaccgctctcaaagtcgtcttaacaggtggaatgtacaatccagtcaatcgaggatcttgact']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.8930629332</v>
+        <v>45441.83332860264</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1615t&gt;c']</t>
+          <t>['1794_1816del', '1602_1613insttactaagcag', '1717_1744del', '1726_1852del', '1731_1841del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['188a&gt;c']</t>
+          <t>['198_276insgtcgtccaacaaagcagtcaacccaggcttgagtcagagtcgtcgcctatcgacggataatcttcccatcactcctga', '240_347del', '239_280del', '219_368del', '252_375insctcgcgaagagtcctcaactttcgcgtccagaaaagcgtaggtgcatcgctcattggccgcccgaacagacccccagcggtggtcactgacagcggttagtatagacgtctcacaattcaccc']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3430t&gt;a']</t>
+          <t>['3456_3506insccagacaggtgttaaaggcgcgactctgacgcgatcatacccggtagaac', '3417_3495insaatgtgacagtcaaagagtccctttctggtcgcctctgaatgagcaccctgagaccttgaagggctgcggggcagatg', '3424_3460insggtttttgctatgactttgatgtggcaatttcatca', '3403_3442insaatagcctgccggaagagggtgacgaacttatcaccttg', '3385_3473del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89306295642</v>
+        <v>45441.83332862915</v>
       </c>
     </row>
   </sheetData>
